--- a/Result/checksun/資訊服務業.xlsx
+++ b/Result/checksun/資訊服務業.xlsx
@@ -723,22 +723,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -753,15 +753,23 @@
       <c r="X2" t="b">
         <v>0</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>-58</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>1635</v>
+        <v>12752</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -904,22 +912,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -934,15 +942,23 @@
       <c r="X3" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>-40</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1495</v>
+        <v>24664</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1085,22 +1101,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -1115,15 +1131,23 @@
       <c r="X4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>3241</v>
+        <v>26710</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1266,22 +1290,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1296,15 +1320,23 @@
       <c r="X5" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-5319</v>
+        <v>24137</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1447,22 +1479,22 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U6" t="n">
@@ -1477,15 +1509,23 @@
       <c r="X6" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>11213</v>
+        <v>26638</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1628,22 +1668,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U7" t="n">
@@ -1658,15 +1698,23 @@
       <c r="X7" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>4855</v>
+        <v>22742</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1809,22 +1857,22 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U8" t="n">
@@ -1839,15 +1887,23 @@
       <c r="X8" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>16436</v>
+        <v>28253</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1990,22 +2046,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -2018,17 +2074,25 @@
         <v>76</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>11956</v>
+        <v>13532</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2171,22 +2235,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -2199,17 +2263,25 @@
         <v>74</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>18614</v>
+        <v>16082</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2352,22 +2424,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -2380,17 +2452,25 @@
         <v>70</v>
       </c>
       <c r="X11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>13020</v>
+        <v>10749</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2533,22 +2613,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -2571,7 +2651,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>3469</v>
+        <v>779</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2709,27 +2789,27 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -2752,7 +2832,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-727</v>
+        <v>-5355</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2941,7 +3021,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>12225</v>
+        <v>16547</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3130,7 +3210,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>21574</v>
+        <v>21593</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3319,7 +3399,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>9557</v>
+        <v>5943</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3500,7 +3580,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>3518</v>
+        <v>-80</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3681,7 +3761,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>3</v>
+        <v>-3948</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3862,7 +3942,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-533</v>
+        <v>-3106</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4043,7 +4123,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>804</v>
+        <v>-3394</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4224,7 +4304,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>-3660</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4405,7 +4485,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-3081</v>
+        <v>-4047</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4586,7 +4666,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-4402</v>
+        <v>7257</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4767,7 +4847,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-3967</v>
+        <v>7438</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4948,7 +5028,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>508</v>
+        <v>13330</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5135,7 +5215,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-4198</v>
+        <v>-11102</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5322,7 +5402,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-6007</v>
+        <v>-7276</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5509,7 +5589,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-5607</v>
+        <v>-175</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5696,7 +5776,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>93</v>
+        <v>2980</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5883,7 +5963,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-1444</v>
+        <v>4681</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6070,7 +6150,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-1832</v>
+        <v>3589</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6257,7 +6337,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-6997</v>
+        <v>-383</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6444,7 +6524,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>175</v>
+        <v>3568</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6631,7 +6711,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>7264</v>
+        <v>6028</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6818,7 +6898,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>9884</v>
+        <v>10886</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6997,7 +7077,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>5950</v>
+        <v>8147</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7176,7 +7256,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-1843</v>
+        <v>9950</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7365,7 +7445,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>23387</v>
+        <v>52057</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7554,7 +7634,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>42281</v>
+        <v>47185</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7743,7 +7823,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>52749</v>
+        <v>57194</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7932,7 +8012,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>25162</v>
+        <v>36285</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8121,7 +8201,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-2459</v>
+        <v>3985</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8310,7 +8390,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>5743</v>
+        <v>1321</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8499,7 +8579,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>3508</v>
+        <v>-15364</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8688,7 +8768,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>7363</v>
+        <v>14883</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8877,7 +8957,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-1298</v>
+        <v>6839</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9066,7 +9146,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>7615</v>
+        <v>-2173</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9255,7 +9335,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>-919</v>
+        <v>8367</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9444,7 +9524,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-3124</v>
+        <v>27359</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9633,7 +9713,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-176</v>
+        <v>1484</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9822,7 +9902,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-1877</v>
+        <v>1842</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -10011,7 +10091,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-3369</v>
+        <v>6453</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10200,7 +10280,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-4602</v>
+        <v>5081</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10389,7 +10469,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>1399</v>
+        <v>7328</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10578,7 +10658,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>3374</v>
+        <v>11045</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10767,7 +10847,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>6262</v>
+        <v>10624</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10956,7 +11036,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>2320</v>
+        <v>4758</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11145,7 +11225,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>6448</v>
+        <v>8087</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11334,7 +11414,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>3421</v>
+        <v>7209</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11515,7 +11595,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>3609</v>
+        <v>7750</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11696,7 +11776,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>1223</v>
+        <v>6170</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11885,7 +11965,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>4627</v>
+        <v>-1466</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12074,7 +12154,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>211</v>
+        <v>-15444</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12263,7 +12343,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-5521</v>
+        <v>-9435</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12452,7 +12532,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>3464</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12641,7 +12721,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-5294</v>
+        <v>268</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12830,7 +12910,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-13264</v>
+        <v>-2055</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -13019,7 +13099,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>-9557</v>
+        <v>-9475</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13208,7 +13288,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>-10361</v>
+        <v>-9497</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13397,7 +13477,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>9350</v>
+        <v>-2930</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13578,7 +13658,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>6110</v>
+        <v>-15396</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13759,7 +13839,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>15923</v>
+        <v>923</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13940,7 +14020,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>1859</v>
+        <v>-1138</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14129,7 +14209,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>-147051</v>
+        <v>3555408</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14318,7 +14398,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>433669</v>
+        <v>4247163</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14507,7 +14587,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>363140</v>
+        <v>5150698</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14696,7 +14776,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>789976</v>
+        <v>5017979</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14885,7 +14965,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>1745173</v>
+        <v>4744293</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -15074,7 +15154,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>2618380</v>
+        <v>5216500</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15263,7 +15343,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>2912483</v>
+        <v>4198636</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15452,7 +15532,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>2068321</v>
+        <v>2956198</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15641,7 +15721,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>2169178</v>
+        <v>2681511</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15830,7 +15910,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1315520</v>
+        <v>1400698</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -16019,7 +16099,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>930799</v>
+        <v>969148</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16208,7 +16288,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>428942</v>
+        <v>467390</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16397,7 +16477,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-1308</v>
+        <v>-2328</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16586,7 +16666,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>224</v>
+        <v>-398</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16775,7 +16855,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-364</v>
+        <v>857</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16964,7 +17044,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>565</v>
+        <v>1941</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -17153,7 +17233,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-691</v>
+        <v>1782</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17342,7 +17422,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-771</v>
+        <v>2026</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17531,7 +17611,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-1585</v>
+        <v>1454</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17720,7 +17800,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>69</v>
+        <v>2526</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17909,7 +17989,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1992</v>
+        <v>2708</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -18098,7 +18178,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>2961</v>
+        <v>2506</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18279,7 +18359,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>2404</v>
+        <v>3437</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18460,7 +18540,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>805</v>
+        <v>3968</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18649,7 +18729,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>3723</v>
+        <v>1349</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18838,7 +18918,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>1346</v>
+        <v>413</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -19027,7 +19107,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>779</v>
+        <v>2054</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -19216,7 +19296,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-160</v>
+        <v>2173</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19405,7 +19485,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-921</v>
+        <v>2333</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19594,7 +19674,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>-1464</v>
+        <v>1828</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19783,7 +19863,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>-2214</v>
+        <v>2084</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19972,7 +20052,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-12</v>
+        <v>1582</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -20161,7 +20241,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>2739</v>
+        <v>2242</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20350,7 +20430,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>4547</v>
+        <v>3127</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20531,7 +20611,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>3266</v>
+        <v>2948</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20712,7 +20792,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>553</v>
+        <v>-489</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20901,7 +20981,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>1450</v>
+        <v>-5324</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -21090,7 +21170,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>799</v>
+        <v>-10111</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -21279,7 +21359,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>10364</v>
+        <v>-4332</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21468,7 +21548,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>8908</v>
+        <v>-6035</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21657,7 +21737,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>-1497</v>
+        <v>-9947</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21846,7 +21926,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-19309</v>
+        <v>-12810</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -22035,7 +22115,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>-15682</v>
+        <v>-15958</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -22224,7 +22304,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>-9413</v>
+        <v>-10074</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22413,7 +22493,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>4613</v>
+        <v>9743</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22594,7 +22674,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>739</v>
+        <v>2141</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22775,7 +22855,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>963</v>
+        <v>4323</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22956,7 +23036,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>1886</v>
+        <v>3281</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -23104,17 +23184,17 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>17.39</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U122" t="n">
@@ -23145,7 +23225,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>-1339</v>
+        <v>-138</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23293,17 +23373,17 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U123" t="n">
@@ -23334,7 +23414,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>683</v>
+        <v>5419</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23482,17 +23562,17 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U124" t="n">
@@ -23523,7 +23603,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-1538</v>
+        <v>5900</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23671,17 +23751,17 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="U125" t="n">
@@ -23712,7 +23792,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>95</v>
+        <v>6344</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23860,17 +23940,17 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="U126" t="n">
@@ -23901,7 +23981,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-854</v>
+        <v>6303</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -24049,17 +24129,17 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U127" t="n">
@@ -24090,7 +24170,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>659</v>
+        <v>7475</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -24233,22 +24313,22 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="U128" t="n">
@@ -24271,7 +24351,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>1106</v>
+        <v>5209</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24414,22 +24494,22 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="U129" t="n">
@@ -24442,7 +24522,7 @@
         <v>51</v>
       </c>
       <c r="X129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr"/>
@@ -24452,7 +24532,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>5590</v>
+        <v>6312</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24595,22 +24675,22 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="U130" t="n">
@@ -24623,7 +24703,7 @@
         <v>46</v>
       </c>
       <c r="X130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr"/>
@@ -24633,7 +24713,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>6779</v>
+        <v>6883</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24776,22 +24856,22 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>-2.11</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="U131" t="n">
@@ -24804,7 +24884,7 @@
         <v>33</v>
       </c>
       <c r="X131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr"/>
@@ -24814,7 +24894,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>5143</v>
+        <v>5535</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24957,22 +25037,22 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="U132" t="n">
@@ -24995,7 +25075,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>1567</v>
+        <v>2538</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -25138,7 +25218,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -25148,12 +25228,12 @@
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="U133" t="n">
@@ -25176,7 +25256,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>37</v>
+        <v>735</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -25365,7 +25445,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>231730</v>
+        <v>249531</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25554,7 +25634,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>142897</v>
+        <v>156360</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25743,7 +25823,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>17673</v>
+        <v>32205</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25932,7 +26012,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>16554</v>
+        <v>30286</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -26121,7 +26201,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>-8348</v>
+        <v>24217</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -26310,7 +26390,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>2845</v>
+        <v>34336</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26499,7 +26579,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>1247</v>
+        <v>30641</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26688,7 +26768,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>21811</v>
+        <v>38953</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26877,7 +26957,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>11687</v>
+        <v>27975</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -27066,7 +27146,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>12485</v>
+        <v>24067</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -27255,7 +27335,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>10754</v>
+        <v>21262</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -27444,7 +27524,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>19804</v>
+        <v>29099</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27625,7 +27705,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>-184590</v>
+        <v>-1302427</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27806,7 +27886,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>139119</v>
+        <v>-811343</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27987,7 +28067,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-286751</v>
+        <v>-829567</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -28168,7 +28248,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>52670</v>
+        <v>-750012</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -28349,7 +28429,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>-314398</v>
+        <v>-692966</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28530,7 +28610,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>-325619</v>
+        <v>-348841</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28711,7 +28791,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>-1170507</v>
+        <v>-610720</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28892,7 +28972,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>-636064</v>
+        <v>-476118</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -29073,7 +29153,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>-217197</v>
+        <v>-1722</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -29254,7 +29334,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>367825</v>
+        <v>479442</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -29435,7 +29515,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>257496</v>
+        <v>472534</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29616,7 +29696,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>193975</v>
+        <v>685556</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29797,7 +29877,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>-4959</v>
+        <v>-82703</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29978,7 +30058,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>18845</v>
+        <v>65266</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -30159,7 +30239,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>42581</v>
+        <v>223596</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -30340,7 +30420,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>48731</v>
+        <v>293091</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30521,7 +30601,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>1058</v>
+        <v>290977</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30702,7 +30782,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>-48277</v>
+        <v>268958</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30883,7 +30963,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>-126475</v>
+        <v>233437</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -31064,7 +31144,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>45363</v>
+        <v>250329</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -31245,7 +31325,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>229292</v>
+        <v>269772</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -31426,7 +31506,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>370835</v>
+        <v>370602</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31607,7 +31687,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>244556</v>
+        <v>256642</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31788,7 +31868,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>87943</v>
+        <v>85955</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31977,7 +32057,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>156699221</v>
+        <v>-30727556</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -32166,7 +32246,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>-91238055</v>
+        <v>161745719</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -32355,7 +32435,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-254805862</v>
+        <v>322248425</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32544,7 +32624,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>-210697230</v>
+        <v>393182948</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32733,7 +32813,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-115418</v>
+        <v>914224753</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32922,7 +33002,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-24670299</v>
+        <v>904733744</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -33111,7 +33191,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>23270453</v>
+        <v>643906289</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -33300,7 +33380,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>253099192</v>
+        <v>814526574</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -33489,7 +33569,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>601724586</v>
+        <v>818596650</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33678,7 +33758,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>580609725</v>
+        <v>325593156</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33859,7 +33939,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>661240979</v>
+        <v>425443307</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -34040,7 +34120,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>327679457</v>
+        <v>367993622</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -34229,7 +34309,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-3386254</v>
+        <v>11034435</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -34418,7 +34498,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>12101149</v>
+        <v>18168866</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34607,7 +34687,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>7493006</v>
+        <v>7198825</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34796,7 +34876,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>7483865</v>
+        <v>12323774</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34977,7 +35057,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>5305208</v>
+        <v>7000310</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -35158,7 +35238,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>4266603</v>
+        <v>8141827</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -35339,7 +35419,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>6936824</v>
+        <v>5359015</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35520,7 +35600,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>762509</v>
+        <v>2819449</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35701,7 +35781,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>-4560784</v>
+        <v>4245619</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35882,7 +35962,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>-2096915</v>
+        <v>1206759</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -36063,7 +36143,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>932593</v>
+        <v>4729104</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -36244,7 +36324,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>8436008</v>
+        <v>4345562</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -36425,7 +36505,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>-1347075</v>
+        <v>11052900</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36606,7 +36686,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>1172804</v>
+        <v>15645114</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36795,7 +36875,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>4424622</v>
+        <v>12244316</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36984,7 +37064,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>3850852</v>
+        <v>16586302</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -37173,7 +37253,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>6062754</v>
+        <v>15611799</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -37362,7 +37442,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>394711</v>
+        <v>10333806</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -37551,7 +37631,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>8549123</v>
+        <v>9488301</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37740,7 +37820,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>8409556</v>
+        <v>10743910</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37929,7 +38009,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>7424983</v>
+        <v>5717700</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -38118,7 +38198,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>4186327</v>
+        <v>1515197</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -38307,7 +38387,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>1139489</v>
+        <v>424817</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -38496,7 +38576,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>2514112</v>
+        <v>741870</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38677,7 +38757,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-354615</v>
+        <v>-5186098</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38858,7 +38938,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-423617</v>
+        <v>-1998316</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -39047,7 +39127,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>-1540147</v>
+        <v>2022569</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -39236,7 +39316,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>-216049</v>
+        <v>6394551</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -39425,7 +39505,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>-814795</v>
+        <v>8165569</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -39614,7 +39694,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>-546324</v>
+        <v>7887480</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39803,7 +39883,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>-4615434</v>
+        <v>9130126</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39992,7 +40072,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>-759904</v>
+        <v>8225648</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -40181,7 +40261,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>4109040</v>
+        <v>9592203</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -40370,7 +40450,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>11226034</v>
+        <v>12738243</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -40559,7 +40639,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>9740268</v>
+        <v>9817405</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40748,7 +40828,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>4324764</v>
+        <v>5610556</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40929,7 +41009,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>4230</v>
+        <v>7411</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -41110,7 +41190,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>9583</v>
+        <v>13459</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -41291,7 +41371,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>8381</v>
+        <v>12740</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -41472,7 +41552,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>7672</v>
+        <v>6369</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41653,7 +41733,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>1067</v>
+        <v>6864</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41834,7 +41914,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>-3383</v>
+        <v>2689</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -42015,7 +42095,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>-4491</v>
+        <v>-9231</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -42196,7 +42276,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>2809</v>
+        <v>-3043</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -42377,7 +42457,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>7742</v>
+        <v>1148</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -42558,7 +42638,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>3188</v>
+        <v>-4472</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42739,7 +42819,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>2988</v>
+        <v>514</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42920,7 +43000,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>-1670</v>
+        <v>-17130</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -43101,7 +43181,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>141991458</v>
+        <v>-776451035</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -43280,7 +43360,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>88072737</v>
+        <v>1074925288</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -43459,7 +43539,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>-216930369</v>
+        <v>1610503110</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43638,7 +43718,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>172548221</v>
+        <v>2157330623</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43817,7 +43897,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-77752802</v>
+        <v>2168670297</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43996,7 +44076,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>-88579187</v>
+        <v>2329064712</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -44175,7 +44255,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>-1090990714</v>
+        <v>1955247638</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -44354,7 +44434,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>1064605353</v>
+        <v>2233279977</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -44533,7 +44613,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>1916012666</v>
+        <v>2327200480</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44712,7 +44792,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>3075773116</v>
+        <v>2698238601</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44891,7 +44971,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>1181817746</v>
+        <v>824054061</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -45070,7 +45150,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>501631233</v>
+        <v>273036145</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -45257,7 +45337,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>24030</v>
+        <v>70510</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -45446,7 +45526,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>19813</v>
+        <v>125511</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45635,7 +45715,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>891</v>
+        <v>-40721</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45824,7 +45904,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>6853</v>
+        <v>123661</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -46013,7 +46093,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-19243</v>
+        <v>157320</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -46202,7 +46282,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>-24572</v>
+        <v>162455</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -46391,7 +46471,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>39627</v>
+        <v>139079</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46580,7 +46660,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>124941</v>
+        <v>150367</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46769,7 +46849,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>-17040</v>
+        <v>181198</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46958,7 +47038,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>77181</v>
+        <v>127703</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -47139,7 +47219,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>51622</v>
+        <v>82699</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -47320,7 +47400,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>204067</v>
+        <v>261911</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -47509,7 +47589,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>9262</v>
+        <v>5457</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47698,7 +47778,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>5299</v>
+        <v>18221</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47887,7 +47967,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>3805</v>
+        <v>44443</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -48076,7 +48156,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>5202</v>
+        <v>46189</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -48265,7 +48345,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-11723</v>
+        <v>44180</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -48454,7 +48534,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>9870</v>
+        <v>46363</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48643,7 +48723,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>-9007</v>
+        <v>31258</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48832,7 +48912,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>24645</v>
+        <v>38960</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -49021,7 +49101,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>30768</v>
+        <v>17597</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -49210,7 +49290,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>49994</v>
+        <v>20140</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -49391,7 +49471,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>31258</v>
+        <v>11857</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -49572,7 +49652,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>5725</v>
+        <v>-25695</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49710,27 +49790,27 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T266" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U266" t="n">
@@ -49753,7 +49833,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>8421</v>
+        <v>0</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49891,27 +49971,27 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S267" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T267" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U267" t="n">
@@ -49924,7 +50004,7 @@
         <v>0</v>
       </c>
       <c r="X267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y267" t="inlineStr"/>
       <c r="Z267" t="inlineStr"/>
@@ -50072,27 +50152,27 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="T268" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U268" t="n">
@@ -50105,7 +50185,7 @@
         <v>0</v>
       </c>
       <c r="X268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y268" t="inlineStr"/>
       <c r="Z268" t="inlineStr"/>
@@ -50218,11 +50298,11 @@
         <v>1.05</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>100</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -50236,7 +50316,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="N269" t="n">
@@ -50249,27 +50329,27 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U269" t="n">
@@ -50282,7 +50362,7 @@
         <v>0</v>
       </c>
       <c r="X269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y269" t="inlineStr"/>
       <c r="Z269" t="inlineStr"/>
@@ -50473,7 +50553,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-696</v>
+        <v>-269</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50654,7 +50734,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>-480</v>
+        <v>-2169</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50835,7 +50915,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>-343</v>
+        <v>-372</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -51016,7 +51096,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>961</v>
+        <v>-264</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -51197,7 +51277,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>1228</v>
+        <v>388</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -51378,7 +51458,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>1143</v>
+        <v>854</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -51559,7 +51639,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>-534</v>
+        <v>-804</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51740,7 +51820,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>-2917</v>
+        <v>-1442</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51921,7 +52001,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>-3907</v>
+        <v>-3375</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -52102,7 +52182,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>-2893</v>
+        <v>-625</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -52283,7 +52363,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>-1212</v>
+        <v>-492</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -52464,7 +52544,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>-250</v>
+        <v>787</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52645,7 +52725,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>-709</v>
+        <v>2913</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52826,7 +52906,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>-1769</v>
+        <v>3214</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -53007,7 +53087,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>782</v>
+        <v>2335</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -53188,7 +53268,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>2977</v>
+        <v>2832</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -53369,7 +53449,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>2489</v>
+        <v>4570</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -53550,7 +53630,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>255</v>
+        <v>3658</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53731,7 +53811,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>645</v>
+        <v>4143</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53912,7 +53992,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>2494</v>
+        <v>3943</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -54093,7 +54173,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>669</v>
+        <v>799</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -54272,7 +54352,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>291</v>
+        <v>-2381</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -54451,7 +54531,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>-339</v>
+        <v>-1767</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54630,7 +54710,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54809,7 +54889,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>-707</v>
+        <v>-6830</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54988,7 +55068,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>-887</v>
+        <v>-2097</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -55167,7 +55247,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>-172</v>
+        <v>-2627</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -55346,7 +55426,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>-1965</v>
+        <v>-2335</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -55525,7 +55605,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-541</v>
+        <v>-1980</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55704,7 +55784,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>266</v>
+        <v>-3248</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55883,7 +55963,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>-4158</v>
+        <v>-465</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -56034,7 +56114,7 @@
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
@@ -56062,7 +56142,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>-669</v>
+        <v>-1123</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -56241,7 +56321,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>-1924</v>
+        <v>14398</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -56420,7 +56500,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>6895</v>
+        <v>11657</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56599,7 +56679,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>-11119</v>
+        <v>26236</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56778,7 +56858,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>-11319</v>
+        <v>42352</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56957,7 +57037,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>-25108</v>
+        <v>49211</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -57136,7 +57216,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>-26470</v>
+        <v>43747</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -57315,7 +57395,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>27641</v>
+        <v>28019</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -57494,7 +57574,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>29870</v>
+        <v>-8032</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57673,7 +57753,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>63825</v>
+        <v>78306</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57852,7 +57932,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>26030</v>
+        <v>58221</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -58031,7 +58111,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>44449</v>
+        <v>71954</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -58210,7 +58290,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>6392</v>
+        <v>46061</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -58397,7 +58477,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>-61264190</v>
+        <v>106353277</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -58586,7 +58666,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>67711558</v>
+        <v>189919811</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58775,7 +58855,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>146733924</v>
+        <v>190583631</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58964,7 +59044,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>250076588</v>
+        <v>289742915</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -59145,7 +59225,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>99661085</v>
+        <v>230560573</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -59326,7 +59406,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>-87237936</v>
+        <v>85825803</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -59507,7 +59587,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>-82459121</v>
+        <v>3781839</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -59688,7 +59768,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>22547168</v>
+        <v>30853579</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59869,7 +59949,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>131087643</v>
+        <v>73445603</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -60050,7 +60130,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>122125448</v>
+        <v>-6992434</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -60231,7 +60311,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>108352320</v>
+        <v>-8007060</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -60412,7 +60492,7 @@
         </is>
       </c>
       <c r="AB325" t="n">
-        <v>41976096</v>
+        <v>-125783335</v>
       </c>
       <c r="AC325" t="inlineStr">
         <is>
@@ -60593,7 +60673,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>-171976</v>
+        <v>572839</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60774,7 +60854,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>-27255</v>
+        <v>1494392</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60955,7 +61035,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>213563</v>
+        <v>1846692</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -61136,7 +61216,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>360686</v>
+        <v>2106950</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -61317,7 +61397,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>164298</v>
+        <v>2064460</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -61498,7 +61578,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>-114593</v>
+        <v>1843018</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61679,7 +61759,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>384129</v>
+        <v>1685398</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61860,7 +61940,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>1357349</v>
+        <v>1737527</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -62041,7 +62121,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>1747722</v>
+        <v>1748685</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -62222,7 +62302,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>1362135</v>
+        <v>1054899</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -62403,7 +62483,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>542813</v>
+        <v>274736</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -62584,7 +62664,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>209889</v>
+        <v>44661</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -62765,7 +62845,7 @@
         </is>
       </c>
       <c r="AB338" t="n">
-        <v>-848450</v>
+        <v>28408</v>
       </c>
       <c r="AC338" t="inlineStr">
         <is>
@@ -62954,7 +63034,7 @@
         </is>
       </c>
       <c r="AB339" t="n">
-        <v>-1143900</v>
+        <v>1828687</v>
       </c>
       <c r="AC339" t="inlineStr">
         <is>
@@ -63143,7 +63223,7 @@
         </is>
       </c>
       <c r="AB340" t="n">
-        <v>-2696665</v>
+        <v>3002118</v>
       </c>
       <c r="AC340" t="inlineStr">
         <is>
@@ -63332,7 +63412,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>-1264910</v>
+        <v>4334373</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -63521,7 +63601,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>76181</v>
+        <v>5183618</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -63710,7 +63790,7 @@
         </is>
       </c>
       <c r="AB343" t="n">
-        <v>1249432</v>
+        <v>7026183</v>
       </c>
       <c r="AC343" t="inlineStr">
         <is>
@@ -63899,7 +63979,7 @@
         </is>
       </c>
       <c r="AB344" t="n">
-        <v>2141768</v>
+        <v>5729825</v>
       </c>
       <c r="AC344" t="inlineStr">
         <is>
@@ -64088,7 +64168,7 @@
         </is>
       </c>
       <c r="AB345" t="n">
-        <v>2896406</v>
+        <v>5360852</v>
       </c>
       <c r="AC345" t="inlineStr">
         <is>
@@ -64277,7 +64357,7 @@
         </is>
       </c>
       <c r="AB346" t="n">
-        <v>4449351</v>
+        <v>5585552</v>
       </c>
       <c r="AC346" t="inlineStr">
         <is>
@@ -64466,7 +64546,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>3457515</v>
+        <v>3908668</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -64647,7 +64727,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>2211031</v>
+        <v>2676733</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -64828,7 +64908,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>1327400</v>
+        <v>1780775</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -65017,7 +65097,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>-34555288</v>
+        <v>-211322373</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -65206,7 +65286,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>-42293284</v>
+        <v>-196534173</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -65395,7 +65475,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>-204364016</v>
+        <v>-192210222</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -65584,7 +65664,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>-184713595</v>
+        <v>-181729126</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -65773,7 +65853,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>-159615426</v>
+        <v>-159849157</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -65962,7 +66042,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>13911087</v>
+        <v>9753159</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -66143,7 +66223,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>7946510</v>
+        <v>3851267</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -66324,7 +66404,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>5374537</v>
+        <v>-2363188</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -66505,7 +66585,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>-1757293</v>
+        <v>-5941047</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -66686,7 +66766,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>-4962041</v>
+        <v>-5255461</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -66867,7 +66947,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>-5608268</v>
+        <v>-2977218</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -67048,7 +67128,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>-2400635</v>
+        <v>-5680418</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -67237,7 +67317,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>21278</v>
+        <v>44316</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -67426,7 +67506,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>18836</v>
+        <v>65237</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -67615,7 +67695,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>-16842</v>
+        <v>139092</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -67804,7 +67884,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>24979</v>
+        <v>185721</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -67993,7 +68073,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-29191</v>
+        <v>174465</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -68182,7 +68262,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>-22611</v>
+        <v>184694</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -68371,7 +68451,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>-1941</v>
+        <v>147539</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -68560,7 +68640,7 @@
         </is>
       </c>
       <c r="AB369" t="n">
-        <v>75592</v>
+        <v>163079</v>
       </c>
       <c r="AC369" t="inlineStr">
         <is>
@@ -68749,7 +68829,7 @@
         </is>
       </c>
       <c r="AB370" t="n">
-        <v>178545</v>
+        <v>208785</v>
       </c>
       <c r="AC370" t="inlineStr">
         <is>
@@ -68938,7 +69018,7 @@
         </is>
       </c>
       <c r="AB371" t="n">
-        <v>162683</v>
+        <v>153581</v>
       </c>
       <c r="AC371" t="inlineStr">
         <is>
@@ -69127,7 +69207,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>128064</v>
+        <v>129356</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -69308,7 +69388,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>28760</v>
+        <v>76643</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>
@@ -69489,7 +69569,7 @@
         </is>
       </c>
       <c r="AB374" t="n">
-        <v>-446744</v>
+        <v>424446</v>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
@@ -69670,7 +69750,7 @@
         </is>
       </c>
       <c r="AB375" t="n">
-        <v>-184262</v>
+        <v>731817</v>
       </c>
       <c r="AC375" t="inlineStr">
         <is>
@@ -69851,7 +69931,7 @@
         </is>
       </c>
       <c r="AB376" t="n">
-        <v>255699</v>
+        <v>1029274</v>
       </c>
       <c r="AC376" t="inlineStr">
         <is>
@@ -70032,7 +70112,7 @@
         </is>
       </c>
       <c r="AB377" t="n">
-        <v>199044</v>
+        <v>1164271</v>
       </c>
       <c r="AC377" t="inlineStr">
         <is>
@@ -70213,7 +70293,7 @@
         </is>
       </c>
       <c r="AB378" t="n">
-        <v>367184</v>
+        <v>1041204</v>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
@@ -70394,7 +70474,7 @@
         </is>
       </c>
       <c r="AB379" t="n">
-        <v>271824</v>
+        <v>798742</v>
       </c>
       <c r="AC379" t="inlineStr">
         <is>
@@ -70575,7 +70655,7 @@
         </is>
       </c>
       <c r="AB380" t="n">
-        <v>672146</v>
+        <v>961662</v>
       </c>
       <c r="AC380" t="inlineStr">
         <is>
@@ -70756,7 +70836,7 @@
         </is>
       </c>
       <c r="AB381" t="n">
-        <v>548895</v>
+        <v>674241</v>
       </c>
       <c r="AC381" t="inlineStr">
         <is>
@@ -70937,7 +71017,7 @@
         </is>
       </c>
       <c r="AB382" t="n">
-        <v>501751</v>
+        <v>528715</v>
       </c>
       <c r="AC382" t="inlineStr">
         <is>
@@ -71118,7 +71198,7 @@
         </is>
       </c>
       <c r="AB383" t="n">
-        <v>293081</v>
+        <v>284132</v>
       </c>
       <c r="AC383" t="inlineStr">
         <is>
@@ -71299,7 +71379,7 @@
         </is>
       </c>
       <c r="AB384" t="n">
-        <v>125125</v>
+        <v>134849</v>
       </c>
       <c r="AC384" t="inlineStr">
         <is>
@@ -71480,7 +71560,7 @@
         </is>
       </c>
       <c r="AB385" t="n">
-        <v>25167</v>
+        <v>60218</v>
       </c>
       <c r="AC385" t="inlineStr">
         <is>
@@ -71661,7 +71741,7 @@
         </is>
       </c>
       <c r="AB386" t="n">
-        <v>-731189</v>
+        <v>-1471477</v>
       </c>
       <c r="AC386" t="inlineStr">
         <is>
@@ -71850,7 +71930,7 @@
         </is>
       </c>
       <c r="AB387" t="n">
-        <v>-366210</v>
+        <v>4076364</v>
       </c>
       <c r="AC387" t="inlineStr">
         <is>
@@ -72039,7 +72119,7 @@
         </is>
       </c>
       <c r="AB388" t="n">
-        <v>-284727</v>
+        <v>4893389</v>
       </c>
       <c r="AC388" t="inlineStr">
         <is>
@@ -72228,7 +72308,7 @@
         </is>
       </c>
       <c r="AB389" t="n">
-        <v>-406064</v>
+        <v>6972677</v>
       </c>
       <c r="AC389" t="inlineStr">
         <is>
@@ -72417,7 +72497,7 @@
         </is>
       </c>
       <c r="AB390" t="n">
-        <v>-838261</v>
+        <v>9633981</v>
       </c>
       <c r="AC390" t="inlineStr">
         <is>
@@ -72606,7 +72686,7 @@
         </is>
       </c>
       <c r="AB391" t="n">
-        <v>-151727</v>
+        <v>11483179</v>
       </c>
       <c r="AC391" t="inlineStr">
         <is>
@@ -72795,7 +72875,7 @@
         </is>
       </c>
       <c r="AB392" t="n">
-        <v>-334224</v>
+        <v>13718427</v>
       </c>
       <c r="AC392" t="inlineStr">
         <is>
@@ -72984,7 +73064,7 @@
         </is>
       </c>
       <c r="AB393" t="n">
-        <v>5280835</v>
+        <v>16289154</v>
       </c>
       <c r="AC393" t="inlineStr">
         <is>
@@ -73173,7 +73253,7 @@
         </is>
       </c>
       <c r="AB394" t="n">
-        <v>5329843</v>
+        <v>18254157</v>
       </c>
       <c r="AC394" t="inlineStr">
         <is>
@@ -73362,7 +73442,7 @@
         </is>
       </c>
       <c r="AB395" t="n">
-        <v>7712965</v>
+        <v>17063363</v>
       </c>
       <c r="AC395" t="inlineStr">
         <is>
@@ -73551,7 +73631,7 @@
         </is>
       </c>
       <c r="AB396" t="n">
-        <v>5191407</v>
+        <v>13076695</v>
       </c>
       <c r="AC396" t="inlineStr">
         <is>
@@ -73740,7 +73820,7 @@
         </is>
       </c>
       <c r="AB397" t="n">
-        <v>6305063</v>
+        <v>13223524</v>
       </c>
       <c r="AC397" t="inlineStr">
         <is>
@@ -73921,7 +74001,7 @@
         </is>
       </c>
       <c r="AB398" t="n">
-        <v>139222198</v>
+        <v>1640840112</v>
       </c>
       <c r="AC398" t="inlineStr">
         <is>
@@ -74102,7 +74182,7 @@
         </is>
       </c>
       <c r="AB399" t="n">
-        <v>1153062</v>
+        <v>2231308423</v>
       </c>
       <c r="AC399" t="inlineStr">
         <is>
@@ -74283,7 +74363,7 @@
         </is>
       </c>
       <c r="AB400" t="n">
-        <v>357509902</v>
+        <v>5583054114</v>
       </c>
       <c r="AC400" t="inlineStr">
         <is>
@@ -74464,7 +74544,7 @@
         </is>
       </c>
       <c r="AB401" t="n">
-        <v>322987691</v>
+        <v>8065678138</v>
       </c>
       <c r="AC401" t="inlineStr">
         <is>
@@ -74645,7 +74725,7 @@
         </is>
       </c>
       <c r="AB402" t="n">
-        <v>-548378661</v>
+        <v>8470008841</v>
       </c>
       <c r="AC402" t="inlineStr">
         <is>
@@ -74826,7 +74906,7 @@
         </is>
       </c>
       <c r="AB403" t="n">
-        <v>-1018026844</v>
+        <v>8554785513</v>
       </c>
       <c r="AC403" t="inlineStr">
         <is>
@@ -75007,7 +75087,7 @@
         </is>
       </c>
       <c r="AB404" t="n">
-        <v>1178630223</v>
+        <v>7957087425</v>
       </c>
       <c r="AC404" t="inlineStr">
         <is>
@@ -75188,7 +75268,7 @@
         </is>
       </c>
       <c r="AB405" t="n">
-        <v>2778534022</v>
+        <v>8217904461</v>
       </c>
       <c r="AC405" t="inlineStr">
         <is>
@@ -75369,7 +75449,7 @@
         </is>
       </c>
       <c r="AB406" t="n">
-        <v>6243571056</v>
+        <v>8604322764</v>
       </c>
       <c r="AC406" t="inlineStr">
         <is>
@@ -75550,7 +75630,7 @@
         </is>
       </c>
       <c r="AB407" t="n">
-        <v>6564060224</v>
+        <v>5179740311</v>
       </c>
       <c r="AC407" t="inlineStr">
         <is>
@@ -75731,7 +75811,7 @@
         </is>
       </c>
       <c r="AB408" t="n">
-        <v>6239853480</v>
+        <v>5074535378</v>
       </c>
       <c r="AC408" t="inlineStr">
         <is>
@@ -75912,7 +75992,7 @@
         </is>
       </c>
       <c r="AB409" t="n">
-        <v>3329241301</v>
+        <v>4150913140</v>
       </c>
       <c r="AC409" t="inlineStr">
         <is>
@@ -76101,7 +76181,7 @@
         </is>
       </c>
       <c r="AB410" t="n">
-        <v>292567502</v>
+        <v>33052634</v>
       </c>
       <c r="AC410" t="inlineStr">
         <is>
@@ -76290,7 +76370,7 @@
         </is>
       </c>
       <c r="AB411" t="n">
-        <v>380094629</v>
+        <v>70531802</v>
       </c>
       <c r="AC411" t="inlineStr">
         <is>
@@ -76479,7 +76559,7 @@
         </is>
       </c>
       <c r="AB412" t="n">
-        <v>397196274</v>
+        <v>169626609</v>
       </c>
       <c r="AC412" t="inlineStr">
         <is>
@@ -76668,7 +76748,7 @@
         </is>
       </c>
       <c r="AB413" t="n">
-        <v>366655794</v>
+        <v>157076242</v>
       </c>
       <c r="AC413" t="inlineStr">
         <is>
@@ -76857,7 +76937,7 @@
         </is>
       </c>
       <c r="AB414" t="n">
-        <v>-17795557</v>
+        <v>77574634</v>
       </c>
       <c r="AC414" t="inlineStr">
         <is>
@@ -77046,7 +77126,7 @@
         </is>
       </c>
       <c r="AB415" t="n">
-        <v>-721076584</v>
+        <v>-62249396</v>
       </c>
       <c r="AC415" t="inlineStr">
         <is>
@@ -77235,7 +77315,7 @@
         </is>
       </c>
       <c r="AB416" t="n">
-        <v>-626170662</v>
+        <v>-176927389</v>
       </c>
       <c r="AC416" t="inlineStr">
         <is>
@@ -77424,7 +77504,7 @@
         </is>
       </c>
       <c r="AB417" t="n">
-        <v>-291767270</v>
+        <v>47451879</v>
       </c>
       <c r="AC417" t="inlineStr">
         <is>
@@ -77613,7 +77693,7 @@
         </is>
       </c>
       <c r="AB418" t="n">
-        <v>493506919</v>
+        <v>701934836</v>
       </c>
       <c r="AC418" t="inlineStr">
         <is>
@@ -77802,7 +77882,7 @@
         </is>
       </c>
       <c r="AB419" t="n">
-        <v>416591110</v>
+        <v>500143561</v>
       </c>
       <c r="AC419" t="inlineStr">
         <is>
@@ -77991,7 +78071,7 @@
         </is>
       </c>
       <c r="AB420" t="n">
-        <v>387137461</v>
+        <v>390830676</v>
       </c>
       <c r="AC420" t="inlineStr">
         <is>
@@ -78180,7 +78260,7 @@
         </is>
       </c>
       <c r="AB421" t="n">
-        <v>165320269</v>
+        <v>152951833</v>
       </c>
       <c r="AC421" t="inlineStr">
         <is>
@@ -78361,7 +78441,7 @@
         </is>
       </c>
       <c r="AB422" t="n">
-        <v>-75866705</v>
+        <v>-1645108065</v>
       </c>
       <c r="AC422" t="inlineStr">
         <is>
@@ -78550,7 +78630,7 @@
         </is>
       </c>
       <c r="AB423" t="n">
-        <v>-83400169</v>
+        <v>71659274</v>
       </c>
       <c r="AC423" t="inlineStr">
         <is>
@@ -78739,7 +78819,7 @@
         </is>
       </c>
       <c r="AB424" t="n">
-        <v>-191409088</v>
+        <v>3479856132</v>
       </c>
       <c r="AC424" t="inlineStr">
         <is>
@@ -78928,7 +79008,7 @@
         </is>
       </c>
       <c r="AB425" t="n">
-        <v>-150207715</v>
+        <v>5720196586</v>
       </c>
       <c r="AC425" t="inlineStr">
         <is>
@@ -79117,7 +79197,7 @@
         </is>
       </c>
       <c r="AB426" t="n">
-        <v>-318097163</v>
+        <v>6666574341</v>
       </c>
       <c r="AC426" t="inlineStr">
         <is>
@@ -79306,7 +79386,7 @@
         </is>
       </c>
       <c r="AB427" t="n">
-        <v>-408059743</v>
+        <v>6738848774</v>
       </c>
       <c r="AC427" t="inlineStr">
         <is>
@@ -79495,7 +79575,7 @@
         </is>
       </c>
       <c r="AB428" t="n">
-        <v>-1419033645</v>
+        <v>6080891286</v>
       </c>
       <c r="AC428" t="inlineStr">
         <is>
@@ -79684,7 +79764,7 @@
         </is>
       </c>
       <c r="AB429" t="n">
-        <v>473156606</v>
+        <v>6828641568</v>
       </c>
       <c r="AC429" t="inlineStr">
         <is>
@@ -79873,7 +79953,7 @@
         </is>
       </c>
       <c r="AB430" t="n">
-        <v>4079324963</v>
+        <v>7371472206</v>
       </c>
       <c r="AC430" t="inlineStr">
         <is>
@@ -80062,7 +80142,7 @@
         </is>
       </c>
       <c r="AB431" t="n">
-        <v>7289437946</v>
+        <v>7974465193</v>
       </c>
       <c r="AC431" t="inlineStr">
         <is>
@@ -80251,7 +80331,7 @@
         </is>
       </c>
       <c r="AB432" t="n">
-        <v>6511514898</v>
+        <v>6453383718</v>
       </c>
       <c r="AC432" t="inlineStr">
         <is>
@@ -80440,7 +80520,7 @@
         </is>
       </c>
       <c r="AB433" t="n">
-        <v>3067583554</v>
+        <v>3195293580</v>
       </c>
       <c r="AC433" t="inlineStr">
         <is>
@@ -80621,7 +80701,7 @@
         </is>
       </c>
       <c r="AB434" t="n">
-        <v>-4259191916</v>
+        <v>-3523963222</v>
       </c>
       <c r="AC434" t="inlineStr">
         <is>
@@ -80802,7 +80882,7 @@
         </is>
       </c>
       <c r="AB435" t="n">
-        <v>-1266601993</v>
+        <v>97551246</v>
       </c>
       <c r="AC435" t="inlineStr">
         <is>
@@ -80991,7 +81071,7 @@
         </is>
       </c>
       <c r="AB436" t="n">
-        <v>-4305298376</v>
+        <v>-1869684545</v>
       </c>
       <c r="AC436" t="inlineStr">
         <is>
@@ -81180,7 +81260,7 @@
         </is>
       </c>
       <c r="AB437" t="n">
-        <v>-5202616721</v>
+        <v>2249963262</v>
       </c>
       <c r="AC437" t="inlineStr">
         <is>
@@ -81369,7 +81449,7 @@
         </is>
       </c>
       <c r="AB438" t="n">
-        <v>-2244260603</v>
+        <v>1633486809</v>
       </c>
       <c r="AC438" t="inlineStr">
         <is>
@@ -81558,7 +81638,7 @@
         </is>
       </c>
       <c r="AB439" t="n">
-        <v>-92041752</v>
+        <v>3230643253</v>
       </c>
       <c r="AC439" t="inlineStr">
         <is>
@@ -81747,7 +81827,7 @@
         </is>
       </c>
       <c r="AB440" t="n">
-        <v>5937845415</v>
+        <v>10769723195</v>
       </c>
       <c r="AC440" t="inlineStr">
         <is>
@@ -81936,7 +82016,7 @@
         </is>
       </c>
       <c r="AB441" t="n">
-        <v>3608413842</v>
+        <v>9645053401</v>
       </c>
       <c r="AC441" t="inlineStr">
         <is>
@@ -82125,7 +82205,7 @@
         </is>
       </c>
       <c r="AB442" t="n">
-        <v>2527655583</v>
+        <v>7557055505</v>
       </c>
       <c r="AC442" t="inlineStr">
         <is>
@@ -82314,7 +82394,7 @@
         </is>
       </c>
       <c r="AB443" t="n">
-        <v>1514734568</v>
+        <v>4454267665</v>
       </c>
       <c r="AC443" t="inlineStr">
         <is>
@@ -82503,7 +82583,7 @@
         </is>
       </c>
       <c r="AB444" t="n">
-        <v>269333570</v>
+        <v>2577157901</v>
       </c>
       <c r="AC444" t="inlineStr">
         <is>
@@ -82692,7 +82772,7 @@
         </is>
       </c>
       <c r="AB445" t="n">
-        <v>795029422</v>
+        <v>5736317045</v>
       </c>
       <c r="AC445" t="inlineStr">
         <is>
@@ -82873,7 +82953,7 @@
         </is>
       </c>
       <c r="AB446" t="n">
-        <v>-14271499</v>
+        <v>-788641826</v>
       </c>
       <c r="AC446" t="inlineStr">
         <is>
@@ -83054,7 +83134,7 @@
         </is>
       </c>
       <c r="AB447" t="n">
-        <v>108617779</v>
+        <v>-3400805</v>
       </c>
       <c r="AC447" t="inlineStr">
         <is>
@@ -83235,7 +83315,7 @@
         </is>
       </c>
       <c r="AB448" t="n">
-        <v>-85656655</v>
+        <v>1293288676</v>
       </c>
       <c r="AC448" t="inlineStr">
         <is>
@@ -83416,7 +83496,7 @@
         </is>
       </c>
       <c r="AB449" t="n">
-        <v>-86076383</v>
+        <v>2032963245</v>
       </c>
       <c r="AC449" t="inlineStr">
         <is>
@@ -83597,7 +83677,7 @@
         </is>
       </c>
       <c r="AB450" t="n">
-        <v>-207237303</v>
+        <v>2407359150</v>
       </c>
       <c r="AC450" t="inlineStr">
         <is>
@@ -83778,7 +83858,7 @@
         </is>
       </c>
       <c r="AB451" t="n">
-        <v>-221384110</v>
+        <v>2415584551</v>
       </c>
       <c r="AC451" t="inlineStr">
         <is>
@@ -83959,7 +84039,7 @@
         </is>
       </c>
       <c r="AB452" t="n">
-        <v>-688293944</v>
+        <v>2155020316</v>
       </c>
       <c r="AC452" t="inlineStr">
         <is>
@@ -84140,7 +84220,7 @@
         </is>
       </c>
       <c r="AB453" t="n">
-        <v>95218719</v>
+        <v>2551265620</v>
       </c>
       <c r="AC453" t="inlineStr">
         <is>
@@ -84321,7 +84401,7 @@
         </is>
       </c>
       <c r="AB454" t="n">
-        <v>1600329441</v>
+        <v>2380035931</v>
       </c>
       <c r="AC454" t="inlineStr">
         <is>
@@ -84502,7 +84582,7 @@
         </is>
       </c>
       <c r="AB455" t="n">
-        <v>2807333572</v>
+        <v>2356712147</v>
       </c>
       <c r="AC455" t="inlineStr">
         <is>
@@ -84683,7 +84763,7 @@
         </is>
       </c>
       <c r="AB456" t="n">
-        <v>2519377734</v>
+        <v>2068788881</v>
       </c>
       <c r="AC456" t="inlineStr">
         <is>
@@ -84864,7 +84944,7 @@
         </is>
       </c>
       <c r="AB457" t="n">
-        <v>1036639220</v>
+        <v>847597406</v>
       </c>
       <c r="AC457" t="inlineStr">
         <is>
@@ -85053,7 +85133,7 @@
         </is>
       </c>
       <c r="AB458" t="n">
-        <v>-27511671</v>
+        <v>-2031329</v>
       </c>
       <c r="AC458" t="inlineStr">
         <is>
@@ -85242,7 +85322,7 @@
         </is>
       </c>
       <c r="AB459" t="n">
-        <v>-21326135</v>
+        <v>86073271</v>
       </c>
       <c r="AC459" t="inlineStr">
         <is>
@@ -85431,7 +85511,7 @@
         </is>
       </c>
       <c r="AB460" t="n">
-        <v>-70393929</v>
+        <v>286061294</v>
       </c>
       <c r="AC460" t="inlineStr">
         <is>
@@ -85620,7 +85700,7 @@
         </is>
       </c>
       <c r="AB461" t="n">
-        <v>-1820730</v>
+        <v>434996616</v>
       </c>
       <c r="AC461" t="inlineStr">
         <is>
@@ -85809,7 +85889,7 @@
         </is>
       </c>
       <c r="AB462" t="n">
-        <v>-10133162</v>
+        <v>494296145</v>
       </c>
       <c r="AC462" t="inlineStr">
         <is>
@@ -85998,7 +86078,7 @@
         </is>
       </c>
       <c r="AB463" t="n">
-        <v>-8039601</v>
+        <v>504804523</v>
       </c>
       <c r="AC463" t="inlineStr">
         <is>
@@ -86187,7 +86267,7 @@
         </is>
       </c>
       <c r="AB464" t="n">
-        <v>27301072</v>
+        <v>405105254</v>
       </c>
       <c r="AC464" t="inlineStr">
         <is>
@@ -86376,7 +86456,7 @@
         </is>
       </c>
       <c r="AB465" t="n">
-        <v>117532568</v>
+        <v>388377719</v>
       </c>
       <c r="AC465" t="inlineStr">
         <is>
@@ -86565,7 +86645,7 @@
         </is>
       </c>
       <c r="AB466" t="n">
-        <v>364494824</v>
+        <v>299713999</v>
       </c>
       <c r="AC466" t="inlineStr">
         <is>
@@ -86754,7 +86834,7 @@
         </is>
       </c>
       <c r="AB467" t="n">
-        <v>409516274</v>
+        <v>384257160</v>
       </c>
       <c r="AC467" t="inlineStr">
         <is>
@@ -86935,7 +87015,7 @@
         </is>
       </c>
       <c r="AB468" t="n">
-        <v>386896739</v>
+        <v>358809471</v>
       </c>
       <c r="AC468" t="inlineStr">
         <is>
@@ -87116,7 +87196,7 @@
         </is>
       </c>
       <c r="AB469" t="n">
-        <v>148349300</v>
+        <v>170812085</v>
       </c>
       <c r="AC469" t="inlineStr">
         <is>
